--- a/Total pendingAgencies/Total-pendingAgencies07182025pm.xlsx
+++ b/Total pendingAgencies/Total-pendingAgencies07182025pm.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -942,7 +942,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
